--- a/WebApplication1/Textfile/mauupload_hanghoa.xlsx
+++ b/WebApplication1/Textfile/mauupload_hanghoa.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70K6885\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\Nhahang\projecthotel\WebApplication1\Textfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF7F4E1-B7B8-427F-A3ED-AEBF49CD484D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805" xr2:uid="{AD8B064A-1EC2-4E38-822E-40FFDB3CB251}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -82,12 +81,15 @@
   </si>
   <si>
     <t>coca</t>
+  </si>
+  <si>
+    <t>cauthanhsanpham</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,20 +435,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0816E712-8862-49A3-B3CD-7901E8434783}">
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,16 +479,19 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -510,16 +517,19 @@
         <v>1</v>
       </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>2012757</v>
-      </c>
-      <c r="K2" s="1">
-        <v>45414</v>
       </c>
       <c r="L2" s="1">
         <v>45414</v>
       </c>
+      <c r="M2" s="1">
+        <v>45414</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -545,16 +555,19 @@
         <v>1</v>
       </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>2012757</v>
-      </c>
-      <c r="K3" s="1">
-        <v>45414</v>
       </c>
       <c r="L3" s="1">
         <v>45414</v>
       </c>
+      <c r="M3" s="1">
+        <v>45414</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -580,12 +593,15 @@
         <v>1</v>
       </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>2012757</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>45414</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>45414</v>
       </c>
     </row>
